--- a/outputs_HGR/c__Bacilli_train.xlsx
+++ b/outputs_HGR/c__Bacilli_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus17.fasta</t>
+          <t>label_Bacillus19.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996028794455699</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0003971205544300947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996028794455699</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -561,17 +561,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus20.fasta</t>
+          <t>label_Bacillus22.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9098501018999927</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.09014989810000726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9098501018999927</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -582,17 +582,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus26.fasta</t>
+          <t>label_Bacillus28.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999128373192744</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>8.716268072562283e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999128373192744</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,17 +603,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus27.fasta</t>
+          <t>label_Bacillus29.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999633792740206</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>3.662072597946137e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999633792740206</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -624,17 +624,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus31.fasta</t>
+          <t>label_Bacillus34.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999835464995881</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.645350041194716e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999835464995881</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,17 +645,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus36.fasta</t>
+          <t>label_Bacillus4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9987262263801242</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.001273773619875767</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9987262263801242</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -666,17 +666,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus38.fasta</t>
+          <t>label_Bacillus41.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998728214954407</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0001271785045593168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998728214954407</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -687,17 +687,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus4.fasta</t>
+          <t>label_Bacillus43.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998818352476408</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.000118164752359179</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998818352476408</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -708,17 +708,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus44.fasta</t>
+          <t>label_Bacillus47.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9965837138327125</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.003416286167287489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9965837138327125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,17 +729,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus46.fasta</t>
+          <t>label_Bacillus49.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9963558348057373</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.003644165194262694</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9963558348057373</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus51.fasta</t>
+          <t>label_Bacillus50.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993282842863199</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0006717157136800242</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993282842863199</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus56.fasta</t>
+          <t>label_Bacillus57.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999287720631148</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>7.122793688519799e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999287720631148</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -792,17 +792,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus57.fasta</t>
+          <t>label_Bacillus61.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999102041646977</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>8.979583530229863e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999102041646977</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -813,17 +813,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus59.fasta</t>
+          <t>label_Bacillus62.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998177627789457</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.000182237221054265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998177627789457</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus6.fasta</t>
+          <t>label_Bacillus64.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9049260327091986</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.09507396729080139</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9049260327091986</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,17 +855,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus63.fasta</t>
+          <t>label_Bacillus65.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9763709095549499</v>
       </c>
       <c r="C17" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0236290904450501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9763709095549499</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus64.fasta</t>
+          <t>label_Bacillus70.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994714962787693</v>
       </c>
       <c r="C18" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0005285037212307537</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994714962787693</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -897,17 +897,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus68.fasta</t>
+          <t>label_Bacillus71.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999868003799834</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.319962001658488e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999868003799834</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -918,17 +918,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus69.fasta</t>
+          <t>label_Bacillus75.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993162411824034</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.000683758817596606</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993162411824034</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9997411863142515</v>
       </c>
       <c r="C21" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0002588136857484894</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9997411863142515</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -960,17 +960,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus8.fasta</t>
+          <t>label_Bacillus79.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999560877739783</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>4.391222602176286e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999560877739783</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus9.fasta</t>
+          <t>label_Exiguobacterium1.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,17 +1002,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria0.fasta</t>
+          <t>label_Exiguobacterium3.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999983448168639</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.655183136125296e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999983448168639</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1023,17 +1023,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus13.fasta</t>
+          <t>label_Exiguobacterium7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999535080786175</v>
       </c>
       <c r="C25" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>4.649192138247878e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999535080786175</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1044,17 +1044,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus19.fasta</t>
+          <t>label_Gemella1.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9910802419283559</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.008919758071644104</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9910802419283559</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1065,17 +1065,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus3.fasta</t>
+          <t>label_Gemella2.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9973134940965916</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.002686505903408328</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9973134940965916</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus17.fasta</t>
+          <t>label_Paenibacillus13.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1107,7 +1107,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus20.fasta</t>
+          <t>label_Paenibacillus2.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1128,7 +1128,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus26.fasta</t>
+          <t>label_Paenibacillus6.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1149,17 +1149,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus27.fasta</t>
+          <t>label_Staphylococcus20.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999962156600035</v>
       </c>
       <c r="C31" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>3.784339996502692e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999962156600035</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1170,17 +1170,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus31.fasta</t>
+          <t>label_Staphylococcus23.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999797544460224</v>
       </c>
       <c r="C32" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0002024555397760646</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999797544460224</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1191,17 +1191,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus36.fasta</t>
+          <t>label_Staphylococcus25.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998730682181315</v>
       </c>
       <c r="C33" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0001269317818684685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998730682181315</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1212,17 +1212,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus38.fasta</t>
+          <t>label_Staphylococcus29.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9986573307066052</v>
       </c>
       <c r="C34" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.001342669293394744</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9986573307066052</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1233,17 +1233,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus4.fasta</t>
+          <t>label_Bacillus19.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996028794455699</v>
       </c>
       <c r="C35" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0003971205544300947</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996028794455699</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1254,17 +1254,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus44.fasta</t>
+          <t>label_Bacillus22.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9098501018999927</v>
       </c>
       <c r="C36" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.09014989810000726</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9098501018999927</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus46.fasta</t>
+          <t>label_Bacillus28.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999128373192744</v>
       </c>
       <c r="C37" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>8.716268072562283e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999128373192744</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1296,17 +1296,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus51.fasta</t>
+          <t>label_Bacillus29.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999633792740206</v>
       </c>
       <c r="C38" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>3.662072597946137e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999633792740206</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1317,17 +1317,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus56.fasta</t>
+          <t>label_Bacillus34.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999835464995881</v>
       </c>
       <c r="C39" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.645350041194716e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999835464995881</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1338,17 +1338,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus57.fasta</t>
+          <t>label_Bacillus4.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9987262263801242</v>
       </c>
       <c r="C40" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.001273773619875767</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9987262263801242</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1359,17 +1359,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus59.fasta</t>
+          <t>label_Bacillus41.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998728214954407</v>
       </c>
       <c r="C41" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0001271785045593168</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998728214954407</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1380,17 +1380,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus6.fasta</t>
+          <t>label_Bacillus43.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998818352476408</v>
       </c>
       <c r="C42" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.000118164752359179</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998818352476408</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1401,17 +1401,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus63.fasta</t>
+          <t>label_Bacillus47.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9965837138327125</v>
       </c>
       <c r="C43" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.003416286167287489</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9965837138327125</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1422,17 +1422,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus64.fasta</t>
+          <t>label_Bacillus49.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9963558348057373</v>
       </c>
       <c r="C44" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.003644165194262694</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9963558348057373</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1443,17 +1443,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus68.fasta</t>
+          <t>label_Bacillus50.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993282842863199</v>
       </c>
       <c r="C45" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0006717157136800242</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993282842863199</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1464,17 +1464,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus69.fasta</t>
+          <t>label_Bacillus57.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999287720631148</v>
       </c>
       <c r="C46" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>7.122793688519799e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999287720631148</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus76.fasta</t>
+          <t>label_Bacillus61.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999102041646977</v>
       </c>
       <c r="C47" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>8.979583530229863e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999102041646977</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1506,17 +1506,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus8.fasta</t>
+          <t>label_Bacillus62.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998177627789457</v>
       </c>
       <c r="C48" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.000182237221054265</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998177627789457</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1527,17 +1527,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus9.fasta</t>
+          <t>label_Bacillus64.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9049260327091986</v>
       </c>
       <c r="C49" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.09507396729080139</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9049260327091986</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria0.fasta</t>
+          <t>label_Bacillus65.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9763709095549499</v>
       </c>
       <c r="C50" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0236290904450501</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9763709095549499</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1569,17 +1569,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus13.fasta</t>
+          <t>label_Bacillus70.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994714962787693</v>
       </c>
       <c r="C51" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0005285037212307537</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994714962787693</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1590,17 +1590,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus19.fasta</t>
+          <t>label_Bacillus71.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999868003799834</v>
       </c>
       <c r="C52" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.319962001658488e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999868003799834</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1611,17 +1611,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus3.fasta</t>
+          <t>label_Bacillus75.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993162411824034</v>
       </c>
       <c r="C53" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.000683758817596606</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993162411824034</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1632,17 +1632,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus14.fasta</t>
+          <t>label_Bacillus76.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9999450547453217</v>
+        <v>0.9997411863142515</v>
       </c>
       <c r="C54" t="n">
-        <v>5.494525467834748e-05</v>
+        <v>0.0002588136857484894</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999450547453217</v>
+        <v>0.9997411863142515</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1653,17 +1653,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus16.fasta</t>
+          <t>label_Bacillus79.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9993183507078363</v>
+        <v>0.9999560877739783</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0006816492921637428</v>
+        <v>4.391222602176286e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9993183507078363</v>
+        <v>0.9999560877739783</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1674,17 +1674,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus19.fasta</t>
+          <t>label_Exiguobacterium1.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9994966504694649</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0005033495305351229</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9994966504694649</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1695,17 +1695,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus25.fasta</t>
+          <t>label_Exiguobacterium3.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9999717553085001</v>
+        <v>0.9999983448168639</v>
       </c>
       <c r="C57" t="n">
-        <v>2.824469149981512e-05</v>
+        <v>1.655183136125296e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9999717553085001</v>
+        <v>0.9999983448168639</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1716,17 +1716,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus29.fasta</t>
+          <t>label_Exiguobacterium7.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9802261727407322</v>
+        <v>0.9999535080786175</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01977382725926784</v>
+        <v>4.649192138247878e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9802261727407322</v>
+        <v>0.9999535080786175</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1737,17 +1737,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus3.fasta</t>
+          <t>label_Gemella1.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9898436742363731</v>
+        <v>0.9910802419283559</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01015632576362686</v>
+        <v>0.008919758071644104</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9898436742363731</v>
+        <v>0.9910802419283559</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1758,17 +1758,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus35.fasta</t>
+          <t>label_Gemella2.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9998939211564183</v>
+        <v>0.9973134940965916</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0001060788435817131</v>
+        <v>0.002686505903408328</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9998939211564183</v>
+        <v>0.9973134940965916</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1779,17 +1779,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus37.fasta</t>
+          <t>label_Paenibacillus13.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9971576723265518</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.002842327673448118</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9971576723265518</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1800,17 +1800,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus39.fasta</t>
+          <t>label_Paenibacillus2.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9998202887373219</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0001797112626781139</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9998202887373219</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus40.fasta</t>
+          <t>label_Paenibacillus6.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9999599101537157</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C63" t="n">
-        <v>4.008984628432348e-05</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999599101537157</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1842,17 +1842,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus41.fasta</t>
+          <t>label_Staphylococcus20.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9998668536522811</v>
+        <v>0.999962156600035</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0001331463477188471</v>
+        <v>3.784339996502692e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9998668536522811</v>
+        <v>0.999962156600035</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1863,17 +1863,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus42.fasta</t>
+          <t>label_Staphylococcus23.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9999673297369588</v>
+        <v>0.999797544460224</v>
       </c>
       <c r="C65" t="n">
-        <v>3.26702630412546e-05</v>
+        <v>0.0002024555397760646</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999673297369588</v>
+        <v>0.999797544460224</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1884,17 +1884,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus45.fasta</t>
+          <t>label_Staphylococcus25.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9994286405607385</v>
+        <v>0.9998730682181315</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0005713594392614461</v>
+        <v>0.0001269317818684685</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9994286405607385</v>
+        <v>0.9998730682181315</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1905,17 +1905,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus5.fasta</t>
+          <t>label_Staphylococcus29.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9726700751746437</v>
+        <v>0.9986573307066052</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02732992482535635</v>
+        <v>0.001342669293394744</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9726700751746437</v>
+        <v>0.9986573307066052</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1926,17 +1926,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus50.fasta</t>
+          <t>label_Bacillus12.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9992006165238307</v>
+        <v>0.9999794800401579</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0007993834761692524</v>
+        <v>2.051995984205923e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9992006165238307</v>
+        <v>0.9999794800401579</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1947,17 +1947,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus52.fasta</t>
+          <t>label_Bacillus15.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9995724332578447</v>
+        <v>0.9999178318634435</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0004275667421553254</v>
+        <v>8.216813655645855e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9995724332578447</v>
+        <v>0.9999178318634435</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1968,17 +1968,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus55.fasta</t>
+          <t>label_Bacillus17.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.998419245451274</v>
+        <v>0.9998705220553432</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001580754548725947</v>
+        <v>0.0001294779446567476</v>
       </c>
       <c r="D70" t="n">
-        <v>0.998419245451274</v>
+        <v>0.9998705220553432</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1989,17 +1989,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus60.fasta</t>
+          <t>label_Bacillus20.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9999142859241325</v>
+        <v>0.9988093074569547</v>
       </c>
       <c r="C71" t="n">
-        <v>8.571407586755352e-05</v>
+        <v>0.001190692543045253</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999142859241325</v>
+        <v>0.9988093074569547</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2010,17 +2010,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus61.fasta</t>
+          <t>label_Bacillus27.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9997750168722295</v>
+        <v>0.9999953527212434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002249831277705495</v>
+        <v>4.647278756653061e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9997750168722295</v>
+        <v>0.9999953527212434</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2031,17 +2031,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus65.fasta</t>
+          <t>label_Bacillus31.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9812704289168457</v>
+        <v>0.9999671813253923</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01872957108315435</v>
+        <v>3.281867460771995e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9812704289168457</v>
+        <v>0.9999671813253923</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2052,17 +2052,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus66.fasta</t>
+          <t>label_Bacillus32.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9978149998422942</v>
+        <v>0.9999918770790318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.002185000157705821</v>
+        <v>8.122920968219104e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9978149998422942</v>
+        <v>0.9999918770790318</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2073,17 +2073,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus7.fasta</t>
+          <t>label_Bacillus38.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9999876546493717</v>
+        <v>0.9999627198884724</v>
       </c>
       <c r="C75" t="n">
-        <v>1.234535062832174e-05</v>
+        <v>3.728011152756628e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999876546493717</v>
+        <v>0.9999627198884724</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2094,17 +2094,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus72.fasta</t>
+          <t>label_Bacillus40.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9999955517866536</v>
+        <v>0.999932968238285</v>
       </c>
       <c r="C76" t="n">
-        <v>4.448213346479036e-06</v>
+        <v>6.703176171493421e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999955517866536</v>
+        <v>0.999932968238285</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2115,17 +2115,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus73.fasta</t>
+          <t>label_Bacillus42.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9997398674877713</v>
+        <v>0.9999637238417586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0002601325122286907</v>
+        <v>3.627615824147636e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9997398674877713</v>
+        <v>0.9999637238417586</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2136,17 +2136,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus78.fasta</t>
+          <t>label_Bacillus44.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9995179002007867</v>
+        <v>0.9998401781246362</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0004820997992133694</v>
+        <v>0.0001598218753637738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9995179002007867</v>
+        <v>0.9998401781246362</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2157,17 +2157,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus81.fasta</t>
+          <t>label_Bacillus45.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9998694248996479</v>
+        <v>0.9998791750438464</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001305751003520995</v>
+        <v>0.0001208249561536127</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9998694248996479</v>
+        <v>0.9998791750438464</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2178,17 +2178,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus1.fasta</t>
+          <t>label_Bacillus46.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.999999999978275</v>
+        <v>0.9838313020114179</v>
       </c>
       <c r="C80" t="n">
-        <v>2.172492587125497e-11</v>
+        <v>0.01616869798858216</v>
       </c>
       <c r="D80" t="n">
-        <v>0.999999999978275</v>
+        <v>0.9838313020114179</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2199,17 +2199,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus21.fasta</t>
+          <t>label_Bacillus5.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9968590689624512</v>
       </c>
       <c r="C81" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.003140931037548779</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9968590689624512</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2220,17 +2220,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus4.fasta</t>
+          <t>label_Bacillus51.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9937686847307498</v>
       </c>
       <c r="C82" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.006231315269250277</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9937686847307498</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2241,17 +2241,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus7.fasta</t>
+          <t>label_Bacillus55.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993775017241449</v>
       </c>
       <c r="C83" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0006224982758551769</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9993775017241449</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2262,17 +2262,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus8.fasta</t>
+          <t>label_Bacillus56.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994305255562087</v>
       </c>
       <c r="C84" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0005694744437913269</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994305255562087</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2283,17 +2283,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus15.fasta</t>
+          <t>label_Bacillus58.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999958170191605</v>
+        <v>0.9999769490581533</v>
       </c>
       <c r="C85" t="n">
-        <v>4.182980839495171e-06</v>
+        <v>2.305094184672232e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999958170191605</v>
+        <v>0.9999769490581533</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2304,17 +2304,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus18.fasta</t>
+          <t>label_Bacillus60.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.999995425705577</v>
+        <v>0.9999291288845272</v>
       </c>
       <c r="C86" t="n">
-        <v>4.574294423009684e-06</v>
+        <v>7.087111547280922e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>0.999995425705577</v>
+        <v>0.9999291288845272</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2325,17 +2325,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus22.fasta</t>
+          <t>label_Bacillus67.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9756762694616147</v>
+        <v>0.9996941250797061</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02432373053838529</v>
+        <v>0.0003058749202938706</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9756762694616147</v>
+        <v>0.9996941250797061</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2346,17 +2346,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus24.fasta</t>
+          <t>label_Bacillus69.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9999857460530632</v>
+        <v>0.9999958518800355</v>
       </c>
       <c r="C88" t="n">
-        <v>1.425394693679708e-05</v>
+        <v>4.148119964558932e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9999857460530632</v>
+        <v>0.9999958518800355</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus33.fasta</t>
+          <t>label_Bacillus72.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9999999990757744</v>
+        <v>0.9999970027619564</v>
       </c>
       <c r="C89" t="n">
-        <v>9.242255311887516e-10</v>
+        <v>2.997238043689517e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9999999990757744</v>
+        <v>0.9999970027619564</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2388,17 +2388,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus34.fasta</t>
+          <t>label_Bacillus73.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9999999934739831</v>
+        <v>0.9997649840391152</v>
       </c>
       <c r="C90" t="n">
-        <v>6.526016943828383e-09</v>
+        <v>0.0002350159608848752</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999999934739831</v>
+        <v>0.9997649840391152</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2409,17 +2409,17 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus70.fasta</t>
+          <t>label_Bacillus77.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9999999789953563</v>
+        <v>0.9855678855290189</v>
       </c>
       <c r="C91" t="n">
-        <v>2.100464366652824e-08</v>
+        <v>0.01443211447098116</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9999999789953563</v>
+        <v>0.9855678855290189</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2430,17 +2430,17 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus79.fasta</t>
+          <t>label_Bacillus80.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9999999991244793</v>
+        <v>0.9997574561242671</v>
       </c>
       <c r="C92" t="n">
-        <v>8.755206392468722e-10</v>
+        <v>0.0002425438757328829</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9999999991244793</v>
+        <v>0.9997574561242671</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2451,17 +2451,17 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria1.fasta</t>
+          <t>label_Bacillus81.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9999905670606476</v>
+        <v>0.9999119664420254</v>
       </c>
       <c r="C93" t="n">
-        <v>9.4329393524596e-06</v>
+        <v>8.803355797458748e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9999905670606476</v>
+        <v>0.9999119664420254</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2472,59 +2472,59 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus11.fasta</t>
+          <t>label_Exiguobacterium5.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.456917165210126e-05</v>
+        <v>0.9997991224523839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9999854308283479</v>
+        <v>0.0002008775476161564</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9999854308283479</v>
+        <v>0.9997991224523839</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__Bacillales</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus12.fasta</t>
+          <t>label_Gemella0.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.993837645792752e-06</v>
+        <v>0.9999892809188105</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9999970061623542</v>
+        <v>1.07190811895208e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9999970061623542</v>
+        <v>0.9999892809188105</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__Bacillales</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus17.fasta</t>
+          <t>label_Paenibacillus1.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999986636444</v>
       </c>
       <c r="C96" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.336355634043125e-09</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999986636444</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus18.fasta</t>
+          <t>label_Paenibacillus17.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2556,7 +2556,7 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus22.fasta</t>
+          <t>label_Paenibacillus23.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2577,7 +2577,7 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus23.fasta</t>
+          <t>label_Paenibacillus7.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2598,17 +2598,17 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus24.fasta</t>
+          <t>label_Staphylococcus0.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996707593941893</v>
       </c>
       <c r="C100" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0003292406058107598</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996707593941893</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2619,17 +2619,17 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus6.fasta</t>
+          <t>label_Staphylococcus10.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9986576766973136</v>
       </c>
       <c r="C101" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.001342323302686387</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9986576766973136</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2640,17 +2640,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus9.fasta</t>
+          <t>label_Staphylococcus14.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996314397159662</v>
       </c>
       <c r="C102" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0003685602840337496</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9996314397159662</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2661,17 +2661,17 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus0.fasta</t>
+          <t>label_Staphylococcus15.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998916676979004</v>
       </c>
       <c r="C103" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.000108332302099578</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998916676979004</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2682,17 +2682,17 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus11.fasta</t>
+          <t>label_Staphylococcus16.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998023810372142</v>
       </c>
       <c r="C104" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0001976189627857659</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998023810372142</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2703,17 +2703,17 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus2.fasta</t>
+          <t>label_Staphylococcus28.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994011907595846</v>
       </c>
       <c r="C105" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0005988092404153889</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9994011907595846</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2724,17 +2724,17 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus23.fasta</t>
+          <t>label_Staphylococcus30.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998105823885717</v>
       </c>
       <c r="C106" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0001894176114283537</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9998105823885717</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2745,17 +2745,17 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus43.fasta</t>
+          <t>label_Staphylococcus34.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9987178398022154</v>
       </c>
       <c r="C107" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.001282160197784556</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9987178398022154</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2766,17 +2766,17 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus47.fasta</t>
+          <t>label_Staphylococcus9.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999671938724725</v>
       </c>
       <c r="C108" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>3.280612752748676e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999671938724725</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus48.fasta</t>
+          <t>label_Bacillus16.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2808,17 +2808,17 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus49.fasta</t>
+          <t>label_Bacillus2.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9999999999987887</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C110" t="n">
-        <v>1.211276460033203e-12</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9999999999987887</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus54.fasta</t>
+          <t>label_Bacillus24.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2850,7 +2850,7 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus67.fasta</t>
+          <t>label_Bacillus26.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2871,7 +2871,7 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus71.fasta</t>
+          <t>label_Bacillus36.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2892,7 +2892,7 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus80.fasta</t>
+          <t>label_Bacillus37.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2913,17 +2913,17 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria3.fasta</t>
+          <t>label_Bacillus39.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.5665233413113705</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4334766586886296</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5665233413113705</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus14.fasta</t>
+          <t>label_Bacillus78.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2955,7 +2955,7 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus16.fasta</t>
+          <t>label_Exiguobacterium6.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2976,7 +2976,7 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus5.fasta</t>
+          <t>label_Listeria0.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2997,59 +2997,59 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus1.fasta</t>
+          <t>label_Paenibacillus11.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9985506196713774</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.00144938032862265</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9985506196713774</v>
+        <v>1</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus10.fasta</t>
+          <t>label_Paenibacillus12.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9999804612241169</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1.953877588309976e-05</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9999804612241169</v>
+        <v>1</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus12.fasta</t>
+          <t>label_Paenibacillus18.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9999167451642633</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C121" t="n">
-        <v>8.325483573664283e-05</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9999167451642633</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3060,17 +3060,17 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus13.fasta</t>
+          <t>label_Paenibacillus19.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9968295859461778</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C122" t="n">
-        <v>0.003170414053822235</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9968295859461778</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3081,17 +3081,17 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus21.fasta</t>
+          <t>label_Paenibacillus24.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9995198220750019</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0004801779249981373</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9995198220750019</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3102,17 +3102,17 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus28.fasta</t>
+          <t>label_Paenibacillus25.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9993779158474049</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0006220841525950945</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9993779158474049</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3123,17 +3123,17 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus30.fasta</t>
+          <t>label_Paenibacillus3.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9993873479209981</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0006126520790018994</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9993873479209981</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3144,17 +3144,17 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus32.fasta</t>
+          <t>label_Paenibacillus9.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999715356816316</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C126" t="n">
-        <v>2.846431836848057e-05</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999715356816316</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3165,17 +3165,17 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus53.fasta</t>
+          <t>label_Staphylococcus1.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9996270454079901</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0003729545920099186</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9996270454079901</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3186,17 +3186,17 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus58.fasta</t>
+          <t>label_Staphylococcus11.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9999630770812185</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C128" t="n">
-        <v>3.69229187815397e-05</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9999630770812185</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3207,17 +3207,17 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus62.fasta</t>
+          <t>label_Staphylococcus12.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.999922467452487</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C129" t="n">
-        <v>7.753254751294461e-05</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D129" t="n">
-        <v>0.999922467452487</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3228,17 +3228,17 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus74.fasta</t>
+          <t>label_Staphylococcus13.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.999993238702458</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C130" t="n">
-        <v>6.761297541954611e-06</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D130" t="n">
-        <v>0.999993238702458</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3249,17 +3249,17 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus75.fasta</t>
+          <t>label_Staphylococcus22.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9991378678434963</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0008621321565036707</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9991378678434963</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3270,17 +3270,17 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_Bacillus77.fasta</t>
+          <t>label_Staphylococcus24.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9388653994667929</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06113460053320707</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9388653994667929</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3291,17 +3291,17 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria2.fasta</t>
+          <t>label_Staphylococcus31.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9983076795436326</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C133" t="n">
-        <v>0.001692320456367327</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9983076795436326</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3312,17 +3312,17 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_Listeria4.fasta</t>
+          <t>label_Staphylococcus33.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9928354403434808</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C134" t="n">
-        <v>0.007164559656519202</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9928354403434808</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3333,17 +3333,17 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus0.fasta</t>
+          <t>label_Staphylococcus36.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9999999987122363</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C135" t="n">
-        <v>1.287763696981509e-09</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9999999987122363</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus10.fasta</t>
+          <t>label_Staphylococcus37.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3375,7 +3375,7 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus15.fasta</t>
+          <t>label_Staphylococcus38.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3396,7 +3396,7 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus2.fasta</t>
+          <t>label_Staphylococcus4.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3417,7 +3417,7 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus20.fasta</t>
+          <t>label_Staphylococcus5.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3438,7 +3438,7 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_Paenibacillus25.fasta</t>
+          <t>label_Staphylococcus6.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3451,6 +3451,1266 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E140" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus0.fasta</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus11.fasta</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus18.fasta</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus21.fasta</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus25.fasta</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus48.fasta</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus52.fasta</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus53.fasta</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus54.fasta</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus6.fasta</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus74.fasta</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus8.fasta</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium4.fasta</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium8.fasta</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11" t="inlineStr">
+        <is>
+          <t>label_Listeria1.fasta</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11" t="inlineStr">
+        <is>
+          <t>label_Listeria3.fasta</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus14.fasta</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus16.fasta</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus8.fasta</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus17.fasta</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus18.fasta</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus19.fasta</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus2.fasta</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus21.fasta</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus26.fasta</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus27.fasta</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus3.fasta</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus7.fasta</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus8.fasta</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus1.fasta</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.999379874349074</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0006201256509259453</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.999379874349074</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus10.fasta</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.999999182345611</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.176543889483748e-07</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.999999182345611</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus13.fasta</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9997707623612963</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.000229237638703786</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.9997707623612963</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus14.fasta</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9999818120545452</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.818794545477933e-05</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.9999818120545452</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus23.fasta</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9990021450595344</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0009978549404655839</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.9990021450595344</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus3.fasta</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9995344778875048</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0004655221124951471</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.9995344778875048</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus30.fasta</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9999953884425024</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.611557497683051e-06</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.9999953884425024</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus33.fasta</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9999984575599223</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.542440077621928e-06</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.9999984575599223</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus35.fasta</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9999979014658867</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.098534113253366e-06</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.9999979014658867</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus59.fasta</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9999994389278569</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.610721430913024e-07</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.9999994389278569</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus63.fasta</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9999644530101364</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.554698986363106e-05</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.9999644530101364</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus66.fasta</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9998666991963296</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.000133300803670406</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.9998666991963296</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus68.fasta</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9999162936266365</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.370637336354257e-05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.9999162936266365</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus7.fasta</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9999942318678703</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.768132129736446e-06</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.9999942318678703</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="11" t="inlineStr">
+        <is>
+          <t>label_Bacillus9.fasta</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9996802413662913</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0003197586337087401</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.9996802413662913</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium0.fasta</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="11" t="inlineStr">
+        <is>
+          <t>label_Exiguobacterium2.fasta</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="11" t="inlineStr">
+        <is>
+          <t>label_Listeria2.fasta</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9994892467526383</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0005107532473616717</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.9994892467526383</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="11" t="inlineStr">
+        <is>
+          <t>label_Listeria4.fasta</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.998283946512233</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.001716053487767083</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.998283946512233</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus0.fasta</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus10.fasta</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus15.fasta</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus20.fasta</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus21.fasta</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus22.fasta</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus4.fasta</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="11" t="inlineStr">
+        <is>
+          <t>label_Paenibacillus5.fasta</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus32.fasta</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.9999986830596121</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.316940387813561e-06</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.9999986830596121</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus35.fasta</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.9999750739398023</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.49260601976892e-05</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.9999750739398023</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus39.fasta</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9486401368327773</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.05135986316722273</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.9486401368327773</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="11" t="inlineStr">
+        <is>
+          <t>label_Staphylococcus40.fasta</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.8790790856120611</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.1209209143879389</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.8790790856120611</v>
+      </c>
+      <c r="E200" t="inlineStr">
         <is>
           <t>o__Bacillales</t>
         </is>
@@ -3467,7 +4727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3505,17 +4765,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus18.fasta</t>
+          <t>label_Enterococcus1.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5.952003084819246e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9999404799691518</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9999404799691518</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3526,17 +4786,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus2.fasta</t>
+          <t>label_Enterococcus12.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0006267140688644979</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9993732859311355</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9993732859311355</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3547,17 +4807,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus22.fasta</t>
+          <t>label_Enterococcus25.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.310970298826433e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9999568902970117</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999568902970117</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3568,17 +4828,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus38.fasta</t>
+          <t>label_Enterococcus29.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.0001992359674891642</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9998007640325108</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9998007640325108</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3589,17 +4849,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus4.fasta</t>
+          <t>label_Enterococcus30.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0001320161234171779</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9998679838765828</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9998679838765828</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3610,17 +4870,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus6.fasta</t>
+          <t>label_Enterococcus32.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0001760009983677868</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9998239990016322</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9998239990016322</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -3631,17 +4891,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella0.fasta</t>
+          <t>label_Enterococcus34.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.001675954049467632</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9983240459505324</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9983240459505324</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3652,17 +4912,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella2.fasta</t>
+          <t>label_Enterococcus39.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.001724253980182722</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9982757460198173</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9982757460198173</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3673,17 +4933,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella4.fasta</t>
+          <t>label_Enterococcus4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0001293507659750892</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9998706492340249</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9998706492340249</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3694,17 +4954,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus0.fasta</t>
+          <t>label_Enterococcus41.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1069917598550016</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.8930082401449984</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.8930082401449984</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3715,17 +4975,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus100.fasta</t>
+          <t>label_Enterococcus45.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.002723734785412768</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9972762652145872</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9972762652145872</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3736,17 +4996,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus101.fasta</t>
+          <t>label_Enterococcus5.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.00100904515126321</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9989909548487368</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9989909548487368</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3757,17 +5017,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus106.fasta</t>
+          <t>label_Enterococcus6.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.956416302829952e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9999104358369717</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9999104358369717</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3778,17 +5038,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus12.fasta</t>
+          <t>label_Granulicatella2.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.001207234135300328</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.9987927658646997</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9987927658646997</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3799,17 +5059,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus13.fasta</t>
+          <t>label_Lactobacillus10.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6.798988974043851e-07</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9999993201011026</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9999993201011026</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3820,17 +5080,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus19.fasta</t>
+          <t>label_Lactobacillus18.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.164543680573729e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9999958354563194</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9999958354563194</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3841,17 +5101,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus24.fasta</t>
+          <t>label_Lactobacillus20.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>5.289268922814561e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.9999471073107719</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9999471073107719</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3862,17 +5122,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus39.fasta</t>
+          <t>label_Lactobacillus23.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8.555298292067803e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.9999144470170793</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9999144470170793</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3883,17 +5143,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus41.fasta</t>
+          <t>label_Lactobacillus27.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5.804175176360449e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.9999419582482364</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9999419582482364</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3904,17 +5164,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus46.fasta</t>
+          <t>label_Lactobacillus29.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.422133937634129e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.9999857786606237</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.9999857786606237</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3925,17 +5185,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus56.fasta</t>
+          <t>label_Lactobacillus40.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.063851112759195e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.9999989361488872</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9999989361488872</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3946,17 +5206,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus57.fasta</t>
+          <t>label_Lactobacillus41.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0003912128119029079</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.9996087871880971</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.9996087871880971</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3967,17 +5227,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus70.fasta</t>
+          <t>label_Lactobacillus59.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1.64773695343623e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.9999983522630466</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.9999983522630466</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3988,17 +5248,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus75.fasta</t>
+          <t>label_Lactobacillus63.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.534493656585312e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.9999998465506343</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.9999998465506343</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -4009,17 +5269,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus78.fasta</t>
+          <t>label_Lactobacillus66.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3.131880771389817e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.9999996868119229</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9999996868119229</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4030,17 +5290,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus85.fasta</t>
+          <t>label_Lactobacillus67.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.555464996250144e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.9999984445350037</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.9999984445350037</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4051,17 +5311,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus86.fasta</t>
+          <t>label_Lactobacillus75.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6.731165289930452e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0.9999326883471007</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.9999326883471007</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4072,17 +5332,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus93.fasta</t>
+          <t>label_Lactobacillus76.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.0007361496974594983</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.9992638503025405</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9992638503025405</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4093,17 +5353,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus96.fasta</t>
+          <t>label_Lactobacillus77.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.005309443978217643</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.9946905560217824</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9946905560217824</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4114,17 +5374,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc6.fasta</t>
+          <t>label_Lactobacillus85.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>8.303314793511873e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0.9999991696685206</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.9999991696685206</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -4135,17 +5395,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc9.fasta</t>
+          <t>label_Lactobacillus88.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.172467809507083e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0.999999882753219</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.999999882753219</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -4156,17 +5416,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Pediococcus0.fasta</t>
+          <t>label_Lactobacillus99.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>4.6732928261628e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0.9999953267071738</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.9999953267071738</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4177,17 +5437,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus0.fasta</t>
+          <t>label_Leuconostoc10.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.393710103280714e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0.9999360628989672</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.9999360628989672</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4198,17 +5458,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus15.fasta</t>
+          <t>label_Leuconostoc11.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.09459437698845e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0.9999290540562301</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.9999290540562301</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4219,17 +5479,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus25.fasta</t>
+          <t>label_Leuconostoc2.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>9.505862597070092e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.999999904941374</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.999999904941374</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4240,17 +5500,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus34.fasta</t>
+          <t>label_Leuconostoc9.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3.82317636018481e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.9999617682363982</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9999617682363982</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4261,17 +5521,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus39.fasta</t>
+          <t>label_Streptococcus14.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.515279622743559e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.9999848472037726</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9999848472037726</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4282,17 +5542,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus4.fasta</t>
+          <t>label_Streptococcus2.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>3.445494437936958e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0.9999655450556206</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9999655450556206</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4303,17 +5563,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus46.fasta</t>
+          <t>label_Streptococcus22.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.0005317185457625051</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.9994682814542375</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.9994682814542375</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4324,17 +5584,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus49.fasta</t>
+          <t>label_Streptococcus30.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5.724533842510482e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0.9999994275466157</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.9999994275466157</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4345,17 +5605,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus5.fasta</t>
+          <t>label_Streptococcus35.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>8.154742354715694e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0.9999991845257645</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9999991845257645</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4366,17 +5626,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus52.fasta</t>
+          <t>label_Streptococcus36.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.538778813170438e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0.9999846122118683</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9999846122118683</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4387,17 +5647,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus62.fasta</t>
+          <t>label_Streptococcus43.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.000501612669069e-07</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0.9999998999498387</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9999998999498387</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4408,38 +5668,38 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus66.fasta</t>
+          <t>label_Streptococcus46.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9999999999999778</v>
+        <v>5.97540108010497e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.999940245989199</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999940245989199</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus9.fasta</t>
+          <t>label_Streptococcus47.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.0001436596147865732</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9998563403852134</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9998563403852134</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4450,17 +5710,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_Weissella1.fasta</t>
+          <t>label_Streptococcus5.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>4.268225130898973e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.999957317748691</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.999957317748691</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4471,17 +5731,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus18.fasta</t>
+          <t>label_Streptococcus6.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.0001428007401810261</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0.999857199259819</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.999857199259819</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4492,17 +5752,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus2.fasta</t>
+          <t>label_Streptococcus63.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1.810722638106999e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0.9999818927736189</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9999818927736189</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4513,17 +5773,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus22.fasta</t>
+          <t>label_Streptococcus9.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1.411337735568452e-08</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0.9999999858866226</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9999999858866226</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4534,17 +5794,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus38.fasta</t>
+          <t>label_Weissella1.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>4.106811958348722e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0.9999589318804165</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9999589318804165</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4555,17 +5815,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus4.fasta</t>
+          <t>label_Enterococcus1.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>5.952003084819246e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0.9999404799691518</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.9999404799691518</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4576,17 +5836,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus6.fasta</t>
+          <t>label_Enterococcus12.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>0.0006267140688644979</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0.9993732859311355</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.9993732859311355</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4597,17 +5857,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella0.fasta</t>
+          <t>label_Enterococcus25.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>4.310970298826433e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0.9999568902970117</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.9999568902970117</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4618,17 +5878,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella2.fasta</t>
+          <t>label_Enterococcus29.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.0001992359674891642</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0.9998007640325108</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9998007640325108</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4639,17 +5899,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella4.fasta</t>
+          <t>label_Enterococcus30.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.0001320161234171779</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0.9998679838765828</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9998679838765828</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4660,17 +5920,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus0.fasta</t>
+          <t>label_Enterococcus32.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>0.0001760009983677868</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0.9998239990016322</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.9998239990016322</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4681,17 +5941,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus100.fasta</t>
+          <t>label_Enterococcus34.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.001675954049467632</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0.9983240459505324</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9983240459505324</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4702,17 +5962,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus101.fasta</t>
+          <t>label_Enterococcus39.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.001724253980182722</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.9982757460198173</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9982757460198173</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4723,17 +5983,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus106.fasta</t>
+          <t>label_Enterococcus4.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.0001293507659750892</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.9998706492340249</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.9998706492340249</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4744,17 +6004,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus12.fasta</t>
+          <t>label_Enterococcus41.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1069917598550016</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0.8930082401449984</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.8930082401449984</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4765,17 +6025,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus13.fasta</t>
+          <t>label_Enterococcus45.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>0.002723734785412768</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0.9972762652145872</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.9972762652145872</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4786,17 +6046,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus19.fasta</t>
+          <t>label_Enterococcus5.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.00100904515126321</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0.9989909548487368</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9989909548487368</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4807,17 +6067,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus24.fasta</t>
+          <t>label_Enterococcus6.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>8.956416302829952e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0.9999104358369717</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.9999104358369717</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4828,17 +6088,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus39.fasta</t>
+          <t>label_Granulicatella2.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.001207234135300328</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.9987927658646997</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.9987927658646997</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4849,17 +6109,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus41.fasta</t>
+          <t>label_Lactobacillus10.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>6.798988974043851e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.9999993201011026</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9999993201011026</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4870,17 +6130,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus46.fasta</t>
+          <t>label_Lactobacillus18.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4.164543680573729e-06</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0.9999958354563194</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9999958354563194</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4891,17 +6151,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus56.fasta</t>
+          <t>label_Lactobacillus20.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>5.289268922814561e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0.9999471073107719</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9999471073107719</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4912,17 +6172,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus57.fasta</t>
+          <t>label_Lactobacillus23.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>8.555298292067803e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.9999144470170793</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9999144470170793</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4933,17 +6193,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus70.fasta</t>
+          <t>label_Lactobacillus27.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>5.804175176360449e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.9999419582482364</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.9999419582482364</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4954,17 +6214,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus75.fasta</t>
+          <t>label_Lactobacillus29.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1.422133937634129e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0.9999857786606237</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.9999857786606237</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4975,17 +6235,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus78.fasta</t>
+          <t>label_Lactobacillus40.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1.063851112759195e-06</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0.9999989361488872</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0.9999989361488872</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4996,17 +6256,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus85.fasta</t>
+          <t>label_Lactobacillus41.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.0003912128119029079</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0.9996087871880971</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0.9996087871880971</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5017,17 +6277,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus86.fasta</t>
+          <t>label_Lactobacillus59.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1.64773695343623e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0.9999983522630466</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.9999983522630466</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5038,17 +6298,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus93.fasta</t>
+          <t>label_Lactobacillus63.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1.534493656585312e-07</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0.9999998465506343</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0.9999998465506343</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5059,17 +6319,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus96.fasta</t>
+          <t>label_Lactobacillus66.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>3.131880771389817e-07</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0.9999996868119229</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.9999996868119229</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5080,17 +6340,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc6.fasta</t>
+          <t>label_Lactobacillus67.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1.555464996250144e-06</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0.9999984445350037</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0.9999984445350037</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5101,17 +6361,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc9.fasta</t>
+          <t>label_Lactobacillus75.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>6.731165289930452e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0.9999326883471007</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0.9999326883471007</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5122,17 +6382,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_Pediococcus0.fasta</t>
+          <t>label_Lactobacillus76.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.0007361496974594983</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.9992638503025405</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0.9992638503025405</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5143,17 +6403,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus0.fasta</t>
+          <t>label_Lactobacillus77.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.005309443978217643</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0.9946905560217824</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0.9946905560217824</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5164,17 +6424,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus15.fasta</t>
+          <t>label_Lactobacillus85.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>8.303314793511873e-07</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0.9999991696685206</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0.9999991696685206</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5185,17 +6445,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus25.fasta</t>
+          <t>label_Lactobacillus88.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1.172467809507083e-07</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0.999999882753219</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0.999999882753219</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5206,17 +6466,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus34.fasta</t>
+          <t>label_Lactobacillus99.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>4.6732928261628e-06</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0.9999953267071738</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0.9999953267071738</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5227,17 +6487,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus39.fasta</t>
+          <t>label_Leuconostoc10.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>6.393710103280714e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0.9999360628989672</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0.9999360628989672</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5248,17 +6508,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus4.fasta</t>
+          <t>label_Leuconostoc11.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>7.09459437698845e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0.9999290540562301</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0.9999290540562301</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5269,17 +6529,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus46.fasta</t>
+          <t>label_Leuconostoc2.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>9.505862597070092e-08</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0.999999904941374</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0.999999904941374</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5290,17 +6550,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus49.fasta</t>
+          <t>label_Leuconostoc9.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>3.82317636018481e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0.9999617682363982</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0.9999617682363982</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5311,17 +6571,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus5.fasta</t>
+          <t>label_Streptococcus14.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1.515279622743559e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0.9999848472037726</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0.9999848472037726</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5332,17 +6592,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus52.fasta</t>
+          <t>label_Streptococcus2.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>3.445494437936958e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.9999655450556206</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.9999655450556206</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5353,17 +6613,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus62.fasta</t>
+          <t>label_Streptococcus22.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.0005317185457625051</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0.9994682814542375</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0.9994682814542375</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5374,38 +6634,38 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus66.fasta</t>
+          <t>label_Streptococcus30.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9999999999999778</v>
+        <v>5.724533842510482e-07</v>
       </c>
       <c r="C91" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.9999994275466157</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999994275466157</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus9.fasta</t>
+          <t>label_Streptococcus35.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>8.154742354715694e-07</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0.9999991845257645</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.9999991845257645</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5416,17 +6676,17 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_Weissella1.fasta</t>
+          <t>label_Streptococcus36.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1.538778813170438e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0.9999846122118683</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0.9999846122118683</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5437,17 +6697,17 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus10.fasta</t>
+          <t>label_Streptococcus43.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.52616928059679e-05</v>
+        <v>1.000501612669069e-07</v>
       </c>
       <c r="C94" t="n">
-        <v>0.999984738307194</v>
+        <v>0.9999998999498387</v>
       </c>
       <c r="D94" t="n">
-        <v>0.999984738307194</v>
+        <v>0.9999998999498387</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5458,17 +6718,17 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus11.fasta</t>
+          <t>label_Streptococcus46.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7.882661129388069e-07</v>
+        <v>5.97540108010497e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9999992117338871</v>
+        <v>0.999940245989199</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9999992117338871</v>
+        <v>0.999940245989199</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5479,17 +6739,17 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus12.fasta</t>
+          <t>label_Streptococcus47.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9.969072385129785e-05</v>
+        <v>0.0001436596147865732</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9999003092761487</v>
+        <v>0.9998563403852134</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9999003092761487</v>
+        <v>0.9998563403852134</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5500,17 +6760,17 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus21.fasta</t>
+          <t>label_Streptococcus5.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6.787314610234851e-06</v>
+        <v>4.268225130898973e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9999932126853898</v>
+        <v>0.999957317748691</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9999932126853898</v>
+        <v>0.999957317748691</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5521,17 +6781,17 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus24.fasta</t>
+          <t>label_Streptococcus6.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.752992124266385e-07</v>
+        <v>0.0001428007401810261</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9999997247007876</v>
+        <v>0.999857199259819</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9999997247007876</v>
+        <v>0.999857199259819</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5542,17 +6802,17 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus36.fasta</t>
+          <t>label_Streptococcus63.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.056184412875141e-06</v>
+        <v>1.810722638106999e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9999969438155871</v>
+        <v>0.9999818927736189</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9999969438155871</v>
+        <v>0.9999818927736189</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5563,17 +6823,17 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus41.fasta</t>
+          <t>label_Streptococcus9.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.07607081617514122</v>
+        <v>1.411337735568452e-08</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9239291838248588</v>
+        <v>0.9999999858866226</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9239291838248588</v>
+        <v>0.9999999858866226</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5584,17 +6844,17 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus44.fasta</t>
+          <t>label_Weissella1.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.497278519177144e-10</v>
+        <v>4.106811958348722e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9999999990502721</v>
+        <v>0.9999589318804165</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999999990502721</v>
+        <v>0.9999589318804165</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5605,17 +6865,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus47.fasta</t>
+          <t>label_Enterococcus14.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.482882870997628e-10</v>
+        <v>1.068581275687208e-07</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9999999996517117</v>
+        <v>0.9999998931418724</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9999999996517117</v>
+        <v>0.9999998931418724</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5626,17 +6886,17 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus8.fasta</t>
+          <t>label_Enterococcus17.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.530591054541233e-07</v>
+        <v>0.002101005728979866</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9999995469408945</v>
+        <v>0.9978989942710201</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9999995469408945</v>
+        <v>0.9978989942710201</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5647,17 +6907,17 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella3.fasta</t>
+          <t>label_Enterococcus18.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0002924522846665667</v>
+        <v>0.004606041513425141</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9997075477153334</v>
+        <v>0.9953939584865749</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9997075477153334</v>
+        <v>0.9953939584865749</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5668,17 +6928,17 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella5.fasta</t>
+          <t>label_Enterococcus22.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.001055084115857419</v>
+        <v>3.489927013156091e-06</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9989449158841426</v>
+        <v>0.9999965100729868</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9989449158841426</v>
+        <v>0.9999965100729868</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5689,17 +6949,17 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus107.fasta</t>
+          <t>label_Enterococcus27.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>9.795054514760704e-05</v>
+        <v>1.512067899778202e-07</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9999020494548524</v>
+        <v>0.99999984879321</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9999020494548524</v>
+        <v>0.99999984879321</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5710,17 +6970,17 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus11.fasta</t>
+          <t>label_Enterococcus31.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0002353431636086256</v>
+        <v>5.152526058815887e-06</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9997646568363914</v>
+        <v>0.9999948474739412</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9997646568363914</v>
+        <v>0.9999948474739412</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5731,17 +6991,17 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus15.fasta</t>
+          <t>label_Enterococcus33.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8.424051229471985e-06</v>
+        <v>3.263827963451149e-08</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9999915759487705</v>
+        <v>0.9999999673617204</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999915759487705</v>
+        <v>0.9999999673617204</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5752,17 +7012,17 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus32.fasta</t>
+          <t>label_Enterococcus46.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0006895070649067803</v>
+        <v>2.161344032414192e-06</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9993104929350932</v>
+        <v>0.9999978386559676</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9993104929350932</v>
+        <v>0.9999978386559676</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5773,17 +7033,17 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus47.fasta</t>
+          <t>label_Enterococcus48.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.305622276959184e-13</v>
+        <v>1.285893859837017e-06</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9999999999998694</v>
+        <v>0.9999987141061402</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9999999999998694</v>
+        <v>0.9999987141061402</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5794,17 +7054,17 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus48.fasta</t>
+          <t>label_Enterococcus8.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>6.31494856406789e-13</v>
+        <v>7.357613608371949e-06</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9999999999993685</v>
+        <v>0.9999926423863916</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9999999999993685</v>
+        <v>0.9999926423863916</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5815,17 +7075,17 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus5.fasta</t>
+          <t>label_Lactobacillus103.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.195349972979656e-07</v>
+        <v>9.346388577413656e-06</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9999995804650027</v>
+        <v>0.9999906536114226</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9999995804650027</v>
+        <v>0.9999906536114226</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5836,17 +7096,17 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus54.fasta</t>
+          <t>label_Lactobacillus11.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5.738732627769138e-06</v>
+        <v>6.287722161546494e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9999942612673722</v>
+        <v>0.9999371227783845</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9999942612673722</v>
+        <v>0.9999371227783845</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5857,17 +7117,17 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus58.fasta</t>
+          <t>label_Lactobacillus3.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.960334905599549e-05</v>
+        <v>1.79014171765024e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>0.999970396650944</v>
+        <v>0.9999820985828235</v>
       </c>
       <c r="D114" t="n">
-        <v>0.999970396650944</v>
+        <v>0.9999820985828235</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5878,17 +7138,17 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus66.fasta</t>
+          <t>label_Lactobacillus31.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1.00294154270486e-06</v>
+        <v>0.002244814941386175</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9999989970584573</v>
+        <v>0.9977551850586138</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9999989970584573</v>
+        <v>0.9977551850586138</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5899,17 +7159,17 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus68.fasta</t>
+          <t>label_Lactobacillus33.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.256387979850729e-07</v>
+        <v>0.001847839242321903</v>
       </c>
       <c r="C116" t="n">
-        <v>0.999999574361202</v>
+        <v>0.9981521607576781</v>
       </c>
       <c r="D116" t="n">
-        <v>0.999999574361202</v>
+        <v>0.9981521607576781</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5920,17 +7180,17 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus7.fasta</t>
+          <t>label_Lactobacillus39.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1.880757040106928e-07</v>
+        <v>2.47441880163457e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>0.999999811924296</v>
+        <v>0.9999752558119837</v>
       </c>
       <c r="D117" t="n">
-        <v>0.999999811924296</v>
+        <v>0.9999752558119837</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5941,17 +7201,17 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus81.fasta</t>
+          <t>label_Lactobacillus43.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.94505992698879e-05</v>
+        <v>0.0004080590280698404</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9999805494007301</v>
+        <v>0.9995919409719302</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9999805494007301</v>
+        <v>0.9995919409719302</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5962,17 +7222,17 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus88.fasta</t>
+          <t>label_Lactobacillus44.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.632424988049166e-08</v>
+        <v>0.002490503320386583</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9999999536757501</v>
+        <v>0.9975094966796134</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999999536757501</v>
+        <v>0.9975094966796134</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5983,17 +7243,17 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus94.fasta</t>
+          <t>label_Lactobacillus53.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>9.711250804622651e-07</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9999990288749195</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9999990288749195</v>
+        <v>1</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6004,17 +7264,17 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus98.fasta</t>
+          <t>label_Lactobacillus55.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.227627400113285e-05</v>
+        <v>0.01015864377354458</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9999877237259989</v>
+        <v>0.9898413562264554</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9999877237259989</v>
+        <v>0.9898413562264554</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6025,17 +7285,17 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc3.fasta</t>
+          <t>label_Lactobacillus57.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.359076922697767e-08</v>
+        <v>0.001660987760424892</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9999999764092308</v>
+        <v>0.9983390122395751</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9999999764092308</v>
+        <v>0.9983390122395751</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6046,17 +7306,17 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus14.fasta</t>
+          <t>label_Lactobacillus7.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1.259924608643104e-06</v>
+        <v>2.628013989092182e-06</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9999987400753914</v>
+        <v>0.9999973719860109</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9999987400753914</v>
+        <v>0.9999973719860109</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6067,17 +7327,17 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus2.fasta</t>
+          <t>label_Lactobacillus71.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.02505666732533e-06</v>
+        <v>2.595277271311147e-06</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9999989749433327</v>
+        <v>0.9999974047227287</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9999989749433327</v>
+        <v>0.9999974047227287</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6088,17 +7348,17 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus21.fasta</t>
+          <t>label_Lactobacillus8.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.163909321522105e-05</v>
+        <v>1.647380290847877e-06</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9999883609067848</v>
+        <v>0.9999983526197092</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9999883609067848</v>
+        <v>0.9999983526197092</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6109,17 +7369,17 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus24.fasta</t>
+          <t>label_Lactobacillus86.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7.708443114928798e-07</v>
+        <v>1.144671024633226e-10</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9999992291556885</v>
+        <v>0.9999999998855329</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999992291556885</v>
+        <v>0.9999999998855329</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6130,17 +7390,17 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus27.fasta</t>
+          <t>label_Lactobacillus9.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1.374994385017203e-08</v>
+        <v>2.058575053709433e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9999999862500561</v>
+        <v>0.9999794142494629</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9999999862500561</v>
+        <v>0.9999794142494629</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6151,17 +7411,17 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus29.fasta</t>
+          <t>label_Lactobacillus96.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.202567338573715e-08</v>
+        <v>1.060065883962125e-06</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9999999579743266</v>
+        <v>0.999998939934116</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9999999579743266</v>
+        <v>0.999998939934116</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6172,17 +7432,17 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus38.fasta</t>
+          <t>label_Leuconostoc8.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.544058055220511e-06</v>
+        <v>4.452095847451432e-05</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9999974559419448</v>
+        <v>0.9999554790415255</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9999974559419448</v>
+        <v>0.9999554790415255</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6193,17 +7453,17 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus50.fasta</t>
+          <t>label_Streptococcus13.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.150364899091485e-06</v>
+        <v>1.793436565922235e-08</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9999958496351009</v>
+        <v>0.9999999820656343</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9999958496351009</v>
+        <v>0.9999999820656343</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6214,17 +7474,17 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus53.fasta</t>
+          <t>label_Streptococcus16.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.749014573171337e-07</v>
+        <v>1.378319374412129e-06</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9999998250985427</v>
+        <v>0.9999986216806256</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9999998250985427</v>
+        <v>0.9999986216806256</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6235,17 +7495,17 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus58.fasta</t>
+          <t>label_Streptococcus19.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>9.675590173507942e-08</v>
+        <v>9.030473432669606e-05</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9999999032440983</v>
+        <v>0.9999096952656733</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9999999032440983</v>
+        <v>0.9999096952656733</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6256,17 +7516,17 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus61.fasta</t>
+          <t>label_Streptococcus21.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1.382187112763944e-06</v>
+        <v>0.002449223178566551</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9999986178128872</v>
+        <v>0.9975507768214334</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9999986178128872</v>
+        <v>0.9975507768214334</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6277,17 +7537,17 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus65.fasta</t>
+          <t>label_Streptococcus24.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.464984508148248e-07</v>
+        <v>0.0006059329510056388</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9999998535015492</v>
+        <v>0.9993940670489944</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9999998535015492</v>
+        <v>0.9993940670489944</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6298,17 +7558,17 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus8.fasta</t>
+          <t>label_Streptococcus34.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.87393150621984e-06</v>
+        <v>0.05841178677994341</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9999971260684938</v>
+        <v>0.9415882132200566</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9999971260684938</v>
+        <v>0.9415882132200566</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6319,17 +7579,17 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus0.fasta</t>
+          <t>label_Streptococcus38.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.870035485993185e-10</v>
+        <v>0.0001695480615926392</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9999999995129965</v>
+        <v>0.9998304519384074</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9999999995129965</v>
+        <v>0.9998304519384074</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6340,17 +7600,17 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus1.fasta</t>
+          <t>label_Streptococcus48.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.786104597556459e-11</v>
+        <v>0.0003295915398163762</v>
       </c>
       <c r="C137" t="n">
-        <v>0.999999999982139</v>
+        <v>0.9996704084601836</v>
       </c>
       <c r="D137" t="n">
-        <v>0.999999999982139</v>
+        <v>0.9996704084601836</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6361,17 +7621,17 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus17.fasta</t>
+          <t>label_Streptococcus50.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>6.931520013520043e-08</v>
+        <v>7.715177160694253e-06</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9999999306847999</v>
+        <v>0.9999922848228393</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9999999306847999</v>
+        <v>0.9999922848228393</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6382,17 +7642,17 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus19.fasta</t>
+          <t>label_Streptococcus55.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7.775297093948197e-07</v>
+        <v>9.920963717213738e-09</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9999992224702906</v>
+        <v>0.9999999900790363</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9999992224702906</v>
+        <v>0.9999999900790363</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6403,17 +7663,17 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus25.fasta</t>
+          <t>label_Streptococcus59.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.1437740471697e-11</v>
+        <v>6.241163769249436e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9999999999785623</v>
+        <v>0.9999375883623075</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9999999999785623</v>
+        <v>0.9999375883623075</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6424,17 +7684,17 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus27.fasta</t>
+          <t>label_Streptococcus62.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.635669460460122e-13</v>
+        <v>0.0002263970932031567</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9999999999997364</v>
+        <v>0.9997736029067968</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9999999999997364</v>
+        <v>0.9997736029067968</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6445,17 +7705,17 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus29.fasta</t>
+          <t>label_Streptococcus64.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6.906564209430144e-11</v>
+        <v>2.075638128484769e-06</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9999999999309344</v>
+        <v>0.9999979243618715</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9999999999309344</v>
+        <v>0.9999979243618715</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6466,17 +7726,17 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus3.fasta</t>
+          <t>label_Streptococcus68.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.076541161244449e-10</v>
+        <v>4.343238433690555e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9999999997923459</v>
+        <v>0.9999565676156631</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9999999997923459</v>
+        <v>0.9999565676156631</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6487,17 +7747,17 @@
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus31.fasta</t>
+          <t>label_Streptococcus8.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.82162532122743e-10</v>
+        <v>0.0001075444259976965</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9999999995178375</v>
+        <v>0.9998924555740023</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9999999995178375</v>
+        <v>0.9998924555740023</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -6508,17 +7768,17 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus32.fasta</t>
+          <t>label_Enterococcus16.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5.867173413776072e-11</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9999999999413283</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9999999999413283</v>
+        <v>1</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6529,17 +7789,17 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus33.fasta</t>
+          <t>label_Enterococcus2.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.664535259100376e-14</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9999999999999734</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9999999999999734</v>
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6550,17 +7810,17 @@
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus43.fasta</t>
+          <t>label_Enterococcus23.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.098559687662259e-09</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9999999989014403</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9999999989014403</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6571,17 +7831,17 @@
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus48.fasta</t>
+          <t>label_Enterococcus24.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9999999999999645</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9999999999999645</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6592,17 +7852,17 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus5.fasta</t>
+          <t>label_Enterococcus28.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.068722887964668e-09</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9999999989312771</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9999999989312771</v>
+        <v>1</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6613,17 +7873,17 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus9.fasta</t>
+          <t>label_Enterococcus3.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.998934434117473e-12</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9999999999970011</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9999999999970011</v>
+        <v>1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6634,17 +7894,17 @@
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>label_Granulicatella1.fasta</t>
+          <t>label_Enterococcus35.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1.285606380352355e-06</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9999987143936196</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9999987143936196</v>
+        <v>1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6655,17 +7915,17 @@
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus105.fasta</t>
+          <t>label_Enterococcus44.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.753353101070389e-14</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9999999999999725</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9999999999999725</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6676,17 +7936,17 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus2.fasta</t>
+          <t>label_Granulicatella3.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4.333022829428046e-11</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9999999999566698</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9999999999566698</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6697,17 +7957,17 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus22.fasta</t>
+          <t>label_Lactobacillus0.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4.458877711499554e-12</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9999999999955411</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9999999999955411</v>
+        <v>1</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6718,17 +7978,17 @@
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus25.fasta</t>
+          <t>label_Lactobacillus100.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9999999999998437</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9999999999998437</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6739,17 +7999,17 @@
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus29.fasta</t>
+          <t>label_Lactobacillus105.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1.031610352697498e-10</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.999999999896839</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>0.999999999896839</v>
+        <v>1</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6760,17 +8020,17 @@
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus30.fasta</t>
+          <t>label_Lactobacillus107.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>7.774473456123587e-07</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9999992225526544</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9999992225526544</v>
+        <v>1</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6781,17 +8041,17 @@
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus33.fasta</t>
+          <t>label_Lactobacillus12.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>8.429255404784897e-09</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9999999915707446</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9999999915707446</v>
+        <v>1</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6802,17 +8062,17 @@
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus34.fasta</t>
+          <t>label_Lactobacillus13.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3.845059814988616e-08</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9999999615494019</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9999999615494019</v>
+        <v>1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6823,17 +8083,17 @@
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus38.fasta</t>
+          <t>label_Lactobacillus17.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2.831290757399074e-12</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9999999999971687</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9999999999971687</v>
+        <v>1</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6844,17 +8104,17 @@
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus4.fasta</t>
+          <t>label_Lactobacillus19.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3.963007699780974e-11</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9999999999603699</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9999999999603699</v>
+        <v>1</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6865,7 +8125,7 @@
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus51.fasta</t>
+          <t>label_Lactobacillus28.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -6886,7 +8146,7 @@
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus52.fasta</t>
+          <t>label_Lactobacillus36.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -6907,17 +8167,17 @@
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus61.fasta</t>
+          <t>label_Lactobacillus37.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2.69340105774063e-13</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9999999999997307</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9999999999997307</v>
+        <v>1</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6928,17 +8188,17 @@
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus62.fasta</t>
+          <t>label_Lactobacillus42.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.898636886072836e-11</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9999999999710136</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9999999999710136</v>
+        <v>1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6949,17 +8209,17 @@
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus71.fasta</t>
+          <t>label_Lactobacillus48.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2.337907645255655e-12</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9999999999976621</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9999999999976621</v>
+        <v>1</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6970,17 +8230,17 @@
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus72.fasta</t>
+          <t>label_Lactobacillus49.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5.012057435749284e-11</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9999999999498794</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9999999999498794</v>
+        <v>1</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6991,17 +8251,17 @@
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus74.fasta</t>
+          <t>label_Lactobacillus50.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.945728201890873e-07</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9999998054271798</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9999998054271798</v>
+        <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -7012,17 +8272,17 @@
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus77.fasta</t>
+          <t>label_Lactobacillus6.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>7.478348359457599e-07</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9999992521651641</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9999992521651641</v>
+        <v>1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -7033,17 +8293,17 @@
     <row r="170">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus80.fasta</t>
+          <t>label_Lactobacillus60.fasta</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>7.131775170421406e-10</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9999999992868225</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9999999992868225</v>
+        <v>1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -7054,17 +8314,17 @@
     <row r="171">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus90.fasta</t>
+          <t>label_Lactobacillus62.fasta</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1.870503751888464e-12</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9999999999981295</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9999999999981295</v>
+        <v>1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -7075,17 +8335,17 @@
     <row r="172">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus91.fasta</t>
+          <t>label_Lactobacillus65.fasta</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2.488453887394826e-12</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9999999999975115</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9999999999975115</v>
+        <v>1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -7096,17 +8356,17 @@
     <row r="173">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus97.fasta</t>
+          <t>label_Lactobacillus70.fasta</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6.672440377997191e-12</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9999999999933276</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9999999999933276</v>
+        <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -7117,7 +8377,7 @@
     <row r="174">
       <c r="A174" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc1.fasta</t>
+          <t>label_Lactobacillus79.fasta</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -7138,7 +8398,7 @@
     <row r="175">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc5.fasta</t>
+          <t>label_Lactobacillus82.fasta</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7159,17 +8419,17 @@
     <row r="176">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus18.fasta</t>
+          <t>label_Lactobacillus83.fasta</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3.367021106370771e-09</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9999999966329789</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9999999966329789</v>
+        <v>1</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7180,17 +8440,17 @@
     <row r="177">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus22.fasta</t>
+          <t>label_Lactobacillus89.fasta</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1.574691332884015e-08</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9999999842530867</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9999999842530867</v>
+        <v>1</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7201,17 +8461,17 @@
     <row r="178">
       <c r="A178" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus3.fasta</t>
+          <t>label_Lactobacillus92.fasta</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1.534352644938508e-09</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9999999984656474</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9999999984656474</v>
+        <v>1</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7222,17 +8482,17 @@
     <row r="179">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus30.fasta</t>
+          <t>label_Lactobacillus98.fasta</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3.371103396432318e-11</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.999999999966289</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>0.999999999966289</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7243,17 +8503,17 @@
     <row r="180">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus32.fasta</t>
+          <t>label_Streptococcus10.fasta</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>7.05369096465347e-10</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9999999992946309</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9999999992946309</v>
+        <v>1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7264,17 +8524,17 @@
     <row r="181">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus35.fasta</t>
+          <t>label_Streptococcus17.fasta</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1.159095042169156e-11</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.999999999988409</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>0.999999999988409</v>
+        <v>1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7285,7 +8545,7 @@
     <row r="182">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus40.fasta</t>
+          <t>label_Streptococcus25.fasta</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -7306,7 +8566,7 @@
     <row r="183">
       <c r="A183" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus41.fasta</t>
+          <t>label_Streptococcus26.fasta</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -7327,17 +8587,17 @@
     <row r="184">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus47.fasta</t>
+          <t>label_Streptococcus27.fasta</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1.946025286470032e-07</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9999998053974714</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9999998053974714</v>
+        <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7348,17 +8608,17 @@
     <row r="185">
       <c r="A185" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus48.fasta</t>
+          <t>label_Streptococcus29.fasta</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1.978148920667167e-06</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9999980218510793</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9999980218510793</v>
+        <v>1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7369,7 +8629,7 @@
     <row r="186">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus54.fasta</t>
+          <t>label_Streptococcus31.fasta</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -7390,17 +8650,17 @@
     <row r="187">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus63.fasta</t>
+          <t>label_Streptococcus37.fasta</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>8.775884796641265e-09</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9999999912241152</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9999999912241152</v>
+        <v>1</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7411,17 +8671,17 @@
     <row r="188">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus64.fasta</t>
+          <t>label_Streptococcus39.fasta</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1.136224447861878e-11</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9999999999886378</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9999999999886378</v>
+        <v>1</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7432,17 +8692,17 @@
     <row r="189">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus67.fasta</t>
+          <t>label_Streptococcus44.fasta</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4.180976009848791e-09</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.999999995819024</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>0.999999995819024</v>
+        <v>1</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7453,17 +8713,17 @@
     <row r="190">
       <c r="A190" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus7.fasta</t>
+          <t>label_Streptococcus45.fasta</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>5.845454709163533e-08</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9999999415454529</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9999999415454529</v>
+        <v>1</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7474,7 +8734,7 @@
     <row r="191">
       <c r="A191" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus13.fasta</t>
+          <t>label_Streptococcus51.fasta</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -7495,7 +8755,7 @@
     <row r="192">
       <c r="A192" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus14.fasta</t>
+          <t>label_Streptococcus60.fasta</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -7516,7 +8776,7 @@
     <row r="193">
       <c r="A193" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus15.fasta</t>
+          <t>label_Streptococcus61.fasta</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -7537,7 +8797,7 @@
     <row r="194">
       <c r="A194" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus16.fasta</t>
+          <t>label_Streptococcus65.fasta</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -7558,7 +8818,7 @@
     <row r="195">
       <c r="A195" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus20.fasta</t>
+          <t>label_Streptococcus67.fasta</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -7579,7 +8839,7 @@
     <row r="196">
       <c r="A196" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus23.fasta</t>
+          <t>label_Enterococcus0.fasta</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -7600,7 +8860,7 @@
     <row r="197">
       <c r="A197" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus34.fasta</t>
+          <t>label_Enterococcus11.fasta</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -7621,7 +8881,7 @@
     <row r="198">
       <c r="A198" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus35.fasta</t>
+          <t>label_Enterococcus13.fasta</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -7642,7 +8902,7 @@
     <row r="199">
       <c r="A199" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus37.fasta</t>
+          <t>label_Enterococcus21.fasta</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -7663,7 +8923,7 @@
     <row r="200">
       <c r="A200" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus40.fasta</t>
+          <t>label_Enterococcus36.fasta</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -7684,7 +8944,7 @@
     <row r="201">
       <c r="A201" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus46.fasta</t>
+          <t>label_Enterococcus37.fasta</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -7705,7 +8965,7 @@
     <row r="202">
       <c r="A202" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus1.fasta</t>
+          <t>label_Enterococcus43.fasta</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -7726,7 +8986,7 @@
     <row r="203">
       <c r="A203" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus10.fasta</t>
+          <t>label_Enterococcus7.fasta</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -7747,7 +9007,7 @@
     <row r="204">
       <c r="A204" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus104.fasta</t>
+          <t>label_Enterococcus9.fasta</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -7768,7 +9028,7 @@
     <row r="205">
       <c r="A205" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus14.fasta</t>
+          <t>label_Granulicatella1.fasta</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -7789,7 +9049,7 @@
     <row r="206">
       <c r="A206" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus16.fasta</t>
+          <t>label_Granulicatella4.fasta</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -7810,7 +9070,7 @@
     <row r="207">
       <c r="A207" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus18.fasta</t>
+          <t>label_Lactobacillus1.fasta</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -7831,7 +9091,7 @@
     <row r="208">
       <c r="A208" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus20.fasta</t>
+          <t>label_Lactobacillus102.fasta</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -7852,7 +9112,7 @@
     <row r="209">
       <c r="A209" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus23.fasta</t>
+          <t>label_Lactobacillus108.fasta</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -7873,7 +9133,7 @@
     <row r="210">
       <c r="A210" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus27.fasta</t>
+          <t>label_Lactobacillus16.fasta</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -7894,7 +9154,7 @@
     <row r="211">
       <c r="A211" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus31.fasta</t>
+          <t>label_Lactobacillus21.fasta</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -7915,7 +9175,7 @@
     <row r="212">
       <c r="A212" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus37.fasta</t>
+          <t>label_Lactobacillus22.fasta</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -7936,7 +9196,7 @@
     <row r="213">
       <c r="A213" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus42.fasta</t>
+          <t>label_Lactobacillus25.fasta</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -7957,7 +9217,7 @@
     <row r="214">
       <c r="A214" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus43.fasta</t>
+          <t>label_Lactobacillus30.fasta</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -7978,7 +9238,7 @@
     <row r="215">
       <c r="A215" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus44.fasta</t>
+          <t>label_Lactobacillus32.fasta</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -7999,7 +9259,7 @@
     <row r="216">
       <c r="A216" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus49.fasta</t>
+          <t>label_Lactobacillus35.fasta</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -8020,7 +9280,7 @@
     <row r="217">
       <c r="A217" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus55.fasta</t>
+          <t>label_Lactobacillus4.fasta</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -8041,7 +9301,7 @@
     <row r="218">
       <c r="A218" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus59.fasta</t>
+          <t>label_Lactobacillus45.fasta</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -8062,7 +9322,7 @@
     <row r="219">
       <c r="A219" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus63.fasta</t>
+          <t>label_Lactobacillus5.fasta</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -8083,7 +9343,7 @@
     <row r="220">
       <c r="A220" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus64.fasta</t>
+          <t>label_Lactobacillus51.fasta</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -8104,7 +9364,7 @@
     <row r="221">
       <c r="A221" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus69.fasta</t>
+          <t>label_Lactobacillus56.fasta</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -8125,7 +9385,7 @@
     <row r="222">
       <c r="A222" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus73.fasta</t>
+          <t>label_Lactobacillus61.fasta</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -8146,7 +9406,7 @@
     <row r="223">
       <c r="A223" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus84.fasta</t>
+          <t>label_Lactobacillus74.fasta</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -8167,7 +9427,7 @@
     <row r="224">
       <c r="A224" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus89.fasta</t>
+          <t>label_Lactobacillus80.fasta</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -8188,7 +9448,7 @@
     <row r="225">
       <c r="A225" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus92.fasta</t>
+          <t>label_Lactobacillus84.fasta</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -8209,7 +9469,7 @@
     <row r="226">
       <c r="A226" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus95.fasta</t>
+          <t>label_Lactobacillus87.fasta</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -8230,7 +9490,7 @@
     <row r="227">
       <c r="A227" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus99.fasta</t>
+          <t>label_Lactobacillus90.fasta</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -8251,7 +9511,7 @@
     <row r="228">
       <c r="A228" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus1.fasta</t>
+          <t>label_Leuconostoc3.fasta</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -8272,7 +9532,7 @@
     <row r="229">
       <c r="A229" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus12.fasta</t>
+          <t>label_Leuconostoc6.fasta</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -8293,7 +9553,7 @@
     <row r="230">
       <c r="A230" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus13.fasta</t>
+          <t>label_Leuconostoc7.fasta</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -8314,7 +9574,7 @@
     <row r="231">
       <c r="A231" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus16.fasta</t>
+          <t>label_Pediococcus0.fasta</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -8335,7 +9595,7 @@
     <row r="232">
       <c r="A232" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus19.fasta</t>
+          <t>label_Streptococcus1.fasta</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -8356,7 +9616,7 @@
     <row r="233">
       <c r="A233" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus20.fasta</t>
+          <t>label_Streptococcus12.fasta</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -8377,7 +9637,7 @@
     <row r="234">
       <c r="A234" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus23.fasta</t>
+          <t>label_Streptococcus15.fasta</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -8398,7 +9658,7 @@
     <row r="235">
       <c r="A235" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus26.fasta</t>
+          <t>label_Streptococcus18.fasta</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -8419,7 +9679,7 @@
     <row r="236">
       <c r="A236" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus28.fasta</t>
+          <t>label_Streptococcus20.fasta</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -8440,7 +9700,7 @@
     <row r="237">
       <c r="A237" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus31.fasta</t>
+          <t>label_Streptococcus23.fasta</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -8461,7 +9721,7 @@
     <row r="238">
       <c r="A238" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus33.fasta</t>
+          <t>label_Streptococcus28.fasta</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -8482,7 +9742,7 @@
     <row r="239">
       <c r="A239" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus36.fasta</t>
+          <t>label_Streptococcus3.fasta</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -8503,7 +9763,7 @@
     <row r="240">
       <c r="A240" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus37.fasta</t>
+          <t>label_Streptococcus32.fasta</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -8524,7 +9784,7 @@
     <row r="241">
       <c r="A241" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus42.fasta</t>
+          <t>label_Streptococcus33.fasta</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -8545,7 +9805,7 @@
     <row r="242">
       <c r="A242" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus45.fasta</t>
+          <t>label_Streptococcus4.fasta</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -8566,7 +9826,7 @@
     <row r="243">
       <c r="A243" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus55.fasta</t>
+          <t>label_Streptococcus42.fasta</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -8587,7 +9847,7 @@
     <row r="244">
       <c r="A244" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus59.fasta</t>
+          <t>label_Streptococcus52.fasta</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -8608,7 +9868,7 @@
     <row r="245">
       <c r="A245" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus6.fasta</t>
+          <t>label_Streptococcus56.fasta</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -8629,7 +9889,7 @@
     <row r="246">
       <c r="A246" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus68.fasta</t>
+          <t>label_Streptococcus57.fasta</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -8650,38 +9910,38 @@
     <row r="247">
       <c r="A247" s="11" t="inlineStr">
         <is>
-          <t>label_Weissella2.fasta</t>
+          <t>label_Streptococcus66.fasta</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__Bacillales</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus26.fasta</t>
+          <t>label_Streptococcus7.fasta</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1.180615730422829e-05</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9999881938426958</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9999881938426958</v>
+        <v>1</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -8692,17 +9952,17 @@
     <row r="249">
       <c r="A249" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus28.fasta</t>
+          <t>label_Weissella2.fasta</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1.65739734858672e-06</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>0.9999983426026514</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9999983426026514</v>
+        <v>1</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -8713,17 +9973,17 @@
     <row r="250">
       <c r="A250" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus30.fasta</t>
+          <t>label_Enterococcus10.fasta</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>3.945014332207286e-06</v>
+        <v>2.328788677452565e-07</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9999960549856678</v>
+        <v>0.9999997671211323</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9999960549856678</v>
+        <v>0.9999997671211323</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -8734,17 +9994,17 @@
     <row r="251">
       <c r="A251" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus39.fasta</t>
+          <t>label_Enterococcus15.fasta</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4.580197535009045e-05</v>
+        <v>3.866778008898564e-10</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9999541980246499</v>
+        <v>0.9999999996133222</v>
       </c>
       <c r="D251" t="n">
-        <v>0.9999541980246499</v>
+        <v>0.9999999996133222</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -8755,17 +10015,17 @@
     <row r="252">
       <c r="A252" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus42.fasta</t>
+          <t>label_Enterococcus19.fasta</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3.259697202173673e-05</v>
+        <v>3.543951311690829e-05</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9999674030279783</v>
+        <v>0.9999645604868831</v>
       </c>
       <c r="D252" t="n">
-        <v>0.9999674030279783</v>
+        <v>0.9999645604868831</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -8776,17 +10036,17 @@
     <row r="253">
       <c r="A253" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus45.fasta</t>
+          <t>label_Enterococcus20.fasta</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.0004890946395361695</v>
+        <v>3.997149256029786e-08</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9995109053604638</v>
+        <v>0.9999999600285074</v>
       </c>
       <c r="D253" t="n">
-        <v>0.9995109053604638</v>
+        <v>0.9999999600285074</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -8797,17 +10057,17 @@
     <row r="254">
       <c r="A254" s="11" t="inlineStr">
         <is>
-          <t>label_Enterococcus7.fasta</t>
+          <t>label_Enterococcus26.fasta</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>3.219670584919676e-06</v>
+        <v>1.129443372160921e-08</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9999967803294151</v>
+        <v>0.9999999887055663</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9999967803294151</v>
+        <v>0.9999999887055663</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -8818,17 +10078,17 @@
     <row r="255">
       <c r="A255" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus102.fasta</t>
+          <t>label_Enterococcus38.fasta</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2.593708470222111e-07</v>
+        <v>3.267026560394015e-08</v>
       </c>
       <c r="C255" t="n">
-        <v>0.999999740629153</v>
+        <v>0.9999999673297344</v>
       </c>
       <c r="D255" t="n">
-        <v>0.999999740629153</v>
+        <v>0.9999999673297344</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -8839,17 +10099,17 @@
     <row r="256">
       <c r="A256" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus103.fasta</t>
+          <t>label_Enterococcus40.fasta</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2.115536222080383e-05</v>
+        <v>2.66299493567601e-09</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9999788446377792</v>
+        <v>0.9999999973370051</v>
       </c>
       <c r="D256" t="n">
-        <v>0.9999788446377792</v>
+        <v>0.9999999973370051</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -8860,17 +10120,17 @@
     <row r="257">
       <c r="A257" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus108.fasta</t>
+          <t>label_Enterococcus42.fasta</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1.740496752944409e-06</v>
+        <v>7.253813161245404e-08</v>
       </c>
       <c r="C257" t="n">
-        <v>0.9999982595032471</v>
+        <v>0.9999999274618684</v>
       </c>
       <c r="D257" t="n">
-        <v>0.9999982595032471</v>
+        <v>0.9999999274618684</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -8881,17 +10141,17 @@
     <row r="258">
       <c r="A258" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus17.fasta</t>
+          <t>label_Enterococcus47.fasta</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2.563390823495659e-05</v>
+        <v>2.982281088748095e-12</v>
       </c>
       <c r="C258" t="n">
-        <v>0.999974366091765</v>
+        <v>0.9999999999970177</v>
       </c>
       <c r="D258" t="n">
-        <v>0.999974366091765</v>
+        <v>0.9999999999970177</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -8902,17 +10162,17 @@
     <row r="259">
       <c r="A259" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus21.fasta</t>
+          <t>label_Granulicatella0.fasta</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>6.438129446229013e-07</v>
+        <v>0.0002783171361668835</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9999993561870554</v>
+        <v>0.9997216828638331</v>
       </c>
       <c r="D259" t="n">
-        <v>0.9999993561870554</v>
+        <v>0.9997216828638331</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -8923,17 +10183,17 @@
     <row r="260">
       <c r="A260" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus26.fasta</t>
+          <t>label_Granulicatella5.fasta</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>7.314692530568934e-07</v>
+        <v>0.0002334529147208775</v>
       </c>
       <c r="C260" t="n">
-        <v>0.9999992685307469</v>
+        <v>0.9997665470852791</v>
       </c>
       <c r="D260" t="n">
-        <v>0.9999992685307469</v>
+        <v>0.9997665470852791</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -8944,17 +10204,17 @@
     <row r="261">
       <c r="A261" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus28.fasta</t>
+          <t>label_Lactobacillus101.fasta</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.000381644986103824</v>
+        <v>1.862494602988818e-10</v>
       </c>
       <c r="C261" t="n">
-        <v>0.9996183550138962</v>
+        <v>0.9999999998137505</v>
       </c>
       <c r="D261" t="n">
-        <v>0.9996183550138962</v>
+        <v>0.9999999998137505</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -8965,17 +10225,17 @@
     <row r="262">
       <c r="A262" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus3.fasta</t>
+          <t>label_Lactobacillus104.fasta</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>5.575160006876523e-06</v>
+        <v>5.204226583011007e-08</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9999944248399931</v>
+        <v>0.9999999479577342</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9999944248399931</v>
+        <v>0.9999999479577342</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -8986,17 +10246,17 @@
     <row r="263">
       <c r="A263" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus35.fasta</t>
+          <t>label_Lactobacillus106.fasta</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>6.840520768336411e-05</v>
+        <v>4.563371902577273e-11</v>
       </c>
       <c r="C263" t="n">
-        <v>0.9999315947923166</v>
+        <v>0.9999999999543663</v>
       </c>
       <c r="D263" t="n">
-        <v>0.9999315947923166</v>
+        <v>0.9999999999543663</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -9007,17 +10267,17 @@
     <row r="264">
       <c r="A264" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus36.fasta</t>
+          <t>label_Lactobacillus14.fasta</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>8.831962232513924e-05</v>
+        <v>1.477472011401915e-08</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9999116803776749</v>
+        <v>0.9999999852252799</v>
       </c>
       <c r="D264" t="n">
-        <v>0.9999116803776749</v>
+        <v>0.9999999852252799</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -9028,17 +10288,17 @@
     <row r="265">
       <c r="A265" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus40.fasta</t>
+          <t>label_Lactobacillus15.fasta</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1.058365547945694e-05</v>
+        <v>3.813916960027086e-09</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9999894163445205</v>
+        <v>0.999999996186083</v>
       </c>
       <c r="D265" t="n">
-        <v>0.9999894163445205</v>
+        <v>0.999999996186083</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -9049,17 +10309,17 @@
     <row r="266">
       <c r="A266" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus45.fasta</t>
+          <t>label_Lactobacillus2.fasta</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.0006765831299466729</v>
+        <v>1.586059950042795e-09</v>
       </c>
       <c r="C266" t="n">
-        <v>0.9993234168700533</v>
+        <v>0.99999999841394</v>
       </c>
       <c r="D266" t="n">
-        <v>0.9993234168700533</v>
+        <v>0.99999999841394</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -9070,17 +10330,17 @@
     <row r="267">
       <c r="A267" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus50.fasta</t>
+          <t>label_Lactobacillus24.fasta</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>2.717452619593885e-07</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0.999999728254738</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0.999999728254738</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -9091,17 +10351,17 @@
     <row r="268">
       <c r="A268" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus53.fasta</t>
+          <t>label_Lactobacillus26.fasta</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2.797762022055394e-14</v>
+        <v>6.743692482213959e-08</v>
       </c>
       <c r="C268" t="n">
-        <v>0.999999999999972</v>
+        <v>0.9999999325630752</v>
       </c>
       <c r="D268" t="n">
-        <v>0.999999999999972</v>
+        <v>0.9999999325630752</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -9112,17 +10372,17 @@
     <row r="269">
       <c r="A269" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus6.fasta</t>
+          <t>label_Lactobacillus34.fasta</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>9.164227865454677e-08</v>
+        <v>2.207025452294342e-05</v>
       </c>
       <c r="C269" t="n">
-        <v>0.9999999083577213</v>
+        <v>0.9999779297454771</v>
       </c>
       <c r="D269" t="n">
-        <v>0.9999999083577213</v>
+        <v>0.9999779297454771</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -9133,17 +10393,17 @@
     <row r="270">
       <c r="A270" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus60.fasta</t>
+          <t>label_Lactobacillus38.fasta</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>7.995114410519477e-07</v>
+        <v>4.507769713057996e-10</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9999992004885589</v>
+        <v>0.999999999549223</v>
       </c>
       <c r="D270" t="n">
-        <v>0.9999992004885589</v>
+        <v>0.999999999549223</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -9154,17 +10414,17 @@
     <row r="271">
       <c r="A271" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus65.fasta</t>
+          <t>label_Lactobacillus46.fasta</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>7.200862742751113e-06</v>
+        <v>8.869760964458351e-05</v>
       </c>
       <c r="C271" t="n">
-        <v>0.9999927991372572</v>
+        <v>0.9999113023903554</v>
       </c>
       <c r="D271" t="n">
-        <v>0.9999927991372572</v>
+        <v>0.9999113023903554</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -9175,17 +10435,17 @@
     <row r="272">
       <c r="A272" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus67.fasta</t>
+          <t>label_Lactobacillus47.fasta</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2.576988004765468e-06</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0.9999974230119952</v>
+        <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>0.9999974230119952</v>
+        <v>1</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -9196,17 +10456,17 @@
     <row r="273">
       <c r="A273" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus76.fasta</t>
+          <t>label_Lactobacillus52.fasta</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0004897890493960055</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>0.999510210950604</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>0.999510210950604</v>
+        <v>1</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -9217,17 +10477,17 @@
     <row r="274">
       <c r="A274" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus79.fasta</t>
+          <t>label_Lactobacillus54.fasta</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1.651525555257383e-05</v>
+        <v>3.460284168088634e-07</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9999834847444474</v>
+        <v>0.9999996539715832</v>
       </c>
       <c r="D274" t="n">
-        <v>0.9999834847444474</v>
+        <v>0.9999996539715832</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -9238,17 +10498,17 @@
     <row r="275">
       <c r="A275" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus8.fasta</t>
+          <t>label_Lactobacillus58.fasta</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1.534661310254037e-06</v>
+        <v>7.62281091293282e-06</v>
       </c>
       <c r="C275" t="n">
-        <v>0.9999984653386897</v>
+        <v>0.9999923771890871</v>
       </c>
       <c r="D275" t="n">
-        <v>0.9999984653386897</v>
+        <v>0.9999923771890871</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -9259,17 +10519,17 @@
     <row r="276">
       <c r="A276" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus82.fasta</t>
+          <t>label_Lactobacillus64.fasta</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>8.43829495711379e-06</v>
+        <v>4.076665142127566e-07</v>
       </c>
       <c r="C276" t="n">
-        <v>0.9999915617050429</v>
+        <v>0.9999995923334858</v>
       </c>
       <c r="D276" t="n">
-        <v>0.9999915617050429</v>
+        <v>0.9999995923334858</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -9280,17 +10540,17 @@
     <row r="277">
       <c r="A277" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus83.fasta</t>
+          <t>label_Lactobacillus68.fasta</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>5.884570651315535e-06</v>
+        <v>1.314011122133252e-10</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9999941154293487</v>
+        <v>0.9999999998685989</v>
       </c>
       <c r="D277" t="n">
-        <v>0.9999941154293487</v>
+        <v>0.9999999998685989</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -9301,17 +10561,17 @@
     <row r="278">
       <c r="A278" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus87.fasta</t>
+          <t>label_Lactobacillus69.fasta</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1.293831708437665e-10</v>
+        <v>1.390765502762292e-09</v>
       </c>
       <c r="C278" t="n">
-        <v>0.9999999998706168</v>
+        <v>0.9999999986092345</v>
       </c>
       <c r="D278" t="n">
-        <v>0.9999999998706168</v>
+        <v>0.9999999986092345</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -9322,17 +10582,17 @@
     <row r="279">
       <c r="A279" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus9.fasta</t>
+          <t>label_Lactobacillus72.fasta</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2.830025960176563e-05</v>
+        <v>5.115769585728458e-09</v>
       </c>
       <c r="C279" t="n">
-        <v>0.9999716997403982</v>
+        <v>0.9999999948842304</v>
       </c>
       <c r="D279" t="n">
-        <v>0.9999716997403982</v>
+        <v>0.9999999948842304</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -9343,17 +10603,17 @@
     <row r="280">
       <c r="A280" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc0.fasta</t>
+          <t>label_Lactobacillus73.fasta</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>7.38013551382366e-08</v>
+        <v>7.388750022929713e-08</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9999999261986449</v>
+        <v>0.9999999261124998</v>
       </c>
       <c r="D280" t="n">
-        <v>0.9999999261986449</v>
+        <v>0.9999999261124998</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -9364,17 +10624,17 @@
     <row r="281">
       <c r="A281" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc10.fasta</t>
+          <t>label_Lactobacillus78.fasta</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>5.560450783870241e-05</v>
+        <v>1.036276842114603e-09</v>
       </c>
       <c r="C281" t="n">
-        <v>0.9999443954921613</v>
+        <v>0.9999999989637232</v>
       </c>
       <c r="D281" t="n">
-        <v>0.9999443954921613</v>
+        <v>0.9999999989637232</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -9385,17 +10645,17 @@
     <row r="282">
       <c r="A282" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc11.fasta</t>
+          <t>label_Lactobacillus81.fasta</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>5.562381752222123e-05</v>
+        <v>5.413447468072263e-13</v>
       </c>
       <c r="C282" t="n">
-        <v>0.9999443761824778</v>
+        <v>0.9999999999994587</v>
       </c>
       <c r="D282" t="n">
-        <v>0.9999443761824778</v>
+        <v>0.9999999999994587</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -9406,17 +10666,17 @@
     <row r="283">
       <c r="A283" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc2.fasta</t>
+          <t>label_Lactobacillus91.fasta</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1.005746376181449e-07</v>
+        <v>2.462262393976289e-09</v>
       </c>
       <c r="C283" t="n">
-        <v>0.9999998994253624</v>
+        <v>0.9999999975377376</v>
       </c>
       <c r="D283" t="n">
-        <v>0.9999998994253624</v>
+        <v>0.9999999975377376</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -9427,17 +10687,17 @@
     <row r="284">
       <c r="A284" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc4.fasta</t>
+          <t>label_Lactobacillus93.fasta</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3.975433138236895e-08</v>
+        <v>3.15140757822796e-07</v>
       </c>
       <c r="C284" t="n">
-        <v>0.9999999602456686</v>
+        <v>0.9999996848592422</v>
       </c>
       <c r="D284" t="n">
-        <v>0.9999999602456686</v>
+        <v>0.9999996848592422</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -9448,17 +10708,17 @@
     <row r="285">
       <c r="A285" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc7.fasta</t>
+          <t>label_Lactobacillus94.fasta</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>5.299080232901154e-05</v>
+        <v>4.523964577396455e-07</v>
       </c>
       <c r="C285" t="n">
-        <v>0.999947009197671</v>
+        <v>0.9999995476035423</v>
       </c>
       <c r="D285" t="n">
-        <v>0.999947009197671</v>
+        <v>0.9999995476035423</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -9469,17 +10729,17 @@
     <row r="286">
       <c r="A286" s="11" t="inlineStr">
         <is>
-          <t>label_Leuconostoc8.fasta</t>
+          <t>label_Lactobacillus95.fasta</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1.046712470997857e-05</v>
+        <v>1.210785660621383e-08</v>
       </c>
       <c r="C286" t="n">
-        <v>0.99998953287529</v>
+        <v>0.9999999878921434</v>
       </c>
       <c r="D286" t="n">
-        <v>0.99998953287529</v>
+        <v>0.9999999878921434</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -9490,17 +10750,17 @@
     <row r="287">
       <c r="A287" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus10.fasta</t>
+          <t>label_Lactobacillus97.fasta</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1.455804939931582e-07</v>
+        <v>2.129409182316521e-08</v>
       </c>
       <c r="C287" t="n">
-        <v>0.999999854419506</v>
+        <v>0.9999999787059082</v>
       </c>
       <c r="D287" t="n">
-        <v>0.999999854419506</v>
+        <v>0.9999999787059082</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -9511,17 +10771,17 @@
     <row r="288">
       <c r="A288" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus11.fasta</t>
+          <t>label_Leuconostoc0.fasta</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>7.005866686782269e-08</v>
+        <v>1.961257822813423e-10</v>
       </c>
       <c r="C288" t="n">
-        <v>0.9999999299413331</v>
+        <v>0.9999999998038742</v>
       </c>
       <c r="D288" t="n">
-        <v>0.9999999299413331</v>
+        <v>0.9999999998038742</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -9532,17 +10792,17 @@
     <row r="289">
       <c r="A289" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus17.fasta</t>
+          <t>label_Leuconostoc1.fasta</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>6.614299345564234e-06</v>
+        <v>2.655259789818842e-09</v>
       </c>
       <c r="C289" t="n">
-        <v>0.9999933857006544</v>
+        <v>0.9999999973447402</v>
       </c>
       <c r="D289" t="n">
-        <v>0.9999933857006544</v>
+        <v>0.9999999973447402</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -9553,17 +10813,17 @@
     <row r="290">
       <c r="A290" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus43.fasta</t>
+          <t>label_Leuconostoc4.fasta</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3.694870054360422e-08</v>
+        <v>2.244360253200739e-11</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9999999630512995</v>
+        <v>0.9999999999775564</v>
       </c>
       <c r="D290" t="n">
-        <v>0.9999999630512995</v>
+        <v>0.9999999999775564</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -9574,17 +10834,17 @@
     <row r="291">
       <c r="A291" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus44.fasta</t>
+          <t>label_Leuconostoc5.fasta</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1.548513250959616e-08</v>
+        <v>3.308797680290354e-11</v>
       </c>
       <c r="C291" t="n">
-        <v>0.9999999845148675</v>
+        <v>0.999999999966912</v>
       </c>
       <c r="D291" t="n">
-        <v>0.9999999845148675</v>
+        <v>0.999999999966912</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -9595,17 +10855,17 @@
     <row r="292">
       <c r="A292" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus51.fasta</t>
+          <t>label_Streptococcus0.fasta</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1.068434434681187e-05</v>
+        <v>5.00597304720074e-08</v>
       </c>
       <c r="C292" t="n">
-        <v>0.9999893156556532</v>
+        <v>0.9999999499402695</v>
       </c>
       <c r="D292" t="n">
-        <v>0.9999893156556532</v>
+        <v>0.9999999499402695</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -9616,17 +10876,17 @@
     <row r="293">
       <c r="A293" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus56.fasta</t>
+          <t>label_Streptococcus11.fasta</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>4.126139430127296e-10</v>
+        <v>3.996558639585146e-11</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9999999995873861</v>
+        <v>0.9999999999600344</v>
       </c>
       <c r="D293" t="n">
-        <v>0.9999999995873861</v>
+        <v>0.9999999999600344</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -9637,17 +10897,17 @@
     <row r="294">
       <c r="A294" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus57.fasta</t>
+          <t>label_Streptococcus40.fasta</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>8.837818138429654e-07</v>
+        <v>7.69362351604741e-12</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9999991162181862</v>
+        <v>0.9999999999923064</v>
       </c>
       <c r="D294" t="n">
-        <v>0.9999991162181862</v>
+        <v>0.9999999999923064</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -9658,17 +10918,17 @@
     <row r="295">
       <c r="A295" s="11" t="inlineStr">
         <is>
-          <t>label_Streptococcus60.fasta</t>
+          <t>label_Streptococcus41.fasta</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1.901899775114124e-06</v>
+        <v>1.56449964094918e-10</v>
       </c>
       <c r="C295" t="n">
-        <v>0.9999980981002249</v>
+        <v>0.99999999984355</v>
       </c>
       <c r="D295" t="n">
-        <v>0.9999980981002249</v>
+        <v>0.99999999984355</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -9679,17 +10939,17 @@
     <row r="296">
       <c r="A296" s="11" t="inlineStr">
         <is>
-          <t>label_Weissella0.fasta</t>
+          <t>label_Streptococcus49.fasta</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>2.120668290084282e-06</v>
+        <v>8.484059391689058e-07</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9999978793317099</v>
+        <v>0.9999991515940608</v>
       </c>
       <c r="D296" t="n">
-        <v>0.9999978793317099</v>
+        <v>0.9999991515940608</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -9700,19 +10960,103 @@
     <row r="297">
       <c r="A297" s="11" t="inlineStr">
         <is>
+          <t>label_Streptococcus53.fasta</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1.234327917654099e-08</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.9999999876567208</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.9999999876567208</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="11" t="inlineStr">
+        <is>
+          <t>label_Streptococcus54.fasta</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>4.047873147783321e-12</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.9999999999959521</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.9999999999959521</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="11" t="inlineStr">
+        <is>
+          <t>label_Streptococcus58.fasta</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1.354141021536748e-09</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.999999998645859</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.999999998645859</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="11" t="inlineStr">
+        <is>
+          <t>label_Weissella0.fasta</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>4.646391860152477e-08</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.9999999535360814</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.9999999535360814</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="11" t="inlineStr">
+        <is>
           <t>label_Weissella3.fasta</t>
         </is>
       </c>
-      <c r="B297" t="n">
-        <v>1.190240816073551e-05</v>
-      </c>
-      <c r="C297" t="n">
-        <v>0.9999880975918393</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0.9999880975918393</v>
-      </c>
-      <c r="E297" t="inlineStr">
+      <c r="B301" t="n">
+        <v>2.026588639125748e-07</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.9999997973411361</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9999997973411361</v>
+      </c>
+      <c r="E301" t="inlineStr">
         <is>
           <t>o__Lactobacillales</t>
         </is>
